--- a/power_graph.xlsx
+++ b/power_graph.xlsx
@@ -69,7 +69,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,7 +79,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -94,6 +94,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -223,13 +229,13 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -588,25 +594,25 @@
         <v>7</v>
       </c>
       <c r="B2" s="8">
-        <v>20.52</v>
+        <v>25.86</v>
       </c>
       <c r="C2" s="8">
-        <v>103.38</v>
+        <v>105.25</v>
       </c>
       <c r="D2" s="8">
-        <v>63.03</v>
+        <v>64.9</v>
       </c>
       <c r="E2" s="8">
-        <v>105.79</v>
+        <v>96.05</v>
       </c>
       <c r="F2" s="8">
-        <v>181.45</v>
+        <v>163.3</v>
       </c>
       <c r="G2" s="8">
-        <v>49.58</v>
+        <v>51.45</v>
       </c>
       <c r="H2" s="8">
-        <v>32.075</v>
+        <v>31.065</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
@@ -617,22 +623,22 @@
         <v>1.6</v>
       </c>
       <c r="C3" s="10">
-        <v>37.7</v>
+        <v>47.763</v>
       </c>
       <c r="D3" s="10">
-        <v>2.8</v>
+        <v>12.863</v>
       </c>
       <c r="E3" s="10">
-        <v>100.07</v>
+        <v>110.133</v>
       </c>
       <c r="F3" s="11">
-        <v>146</v>
+        <v>83.863</v>
       </c>
       <c r="G3" s="10">
-        <v>2.8</v>
+        <v>12.863</v>
       </c>
       <c r="H3" s="10">
-        <v>1.6</v>
+        <v>11.663</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
@@ -643,19 +649,19 @@
         <v>0</v>
       </c>
       <c r="C4" s="10">
-        <v>11.34</v>
+        <v>9</v>
       </c>
       <c r="D4" s="11">
         <v>0</v>
       </c>
       <c r="E4" s="11">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="F4" s="10">
-        <v>56.7</v>
+        <v>60</v>
       </c>
       <c r="G4" s="10">
-        <v>5.67</v>
+        <v>4.5</v>
       </c>
       <c r="H4" s="11">
         <v>0</v>
@@ -695,10 +701,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D6" s="11">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E6" s="11">
         <v>0</v>
@@ -707,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="11">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H6" s="11">
         <v>0</v>
@@ -718,25 +724,25 @@
         <v>12</v>
       </c>
       <c r="B7" s="11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C7" s="11">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="D7" s="10">
-        <v>94.2</v>
+        <v>71.2</v>
       </c>
       <c r="E7" s="10">
-        <v>94.2</v>
+        <v>71.2</v>
       </c>
       <c r="F7" s="10">
-        <v>94.2</v>
+        <v>71.2</v>
       </c>
       <c r="G7" s="10">
-        <v>105.4</v>
+        <v>82.4</v>
       </c>
       <c r="H7" s="11">
-        <v>23</v>
+        <v>70</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
@@ -747,7 +753,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="10">
-        <v>15.8</v>
+        <v>31</v>
       </c>
       <c r="D8" s="11">
         <v>31</v>
@@ -773,22 +779,22 @@
         <v>0.5</v>
       </c>
       <c r="C9" s="13">
-        <v>60.5</v>
+        <v>70.5</v>
       </c>
       <c r="D9" s="13">
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
       <c r="E9" s="13">
-        <v>0.5</v>
+        <v>5.5</v>
       </c>
       <c r="F9" s="13">
         <v>0.5</v>
       </c>
       <c r="G9" s="14">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="H9" s="13">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
